--- a/public/model/bondsNonpBatchTemplate.xlsx
+++ b/public/model/bondsNonpBatchTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YANG-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ccdc\cbpc-frontend\public\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D5AA8-D785-4760-9FC0-E89C267C1550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230E2E2-D1E2-4610-B2F3-B509DEE8166C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,33 +91,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>资产根码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>债券简称</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +175,33 @@
   </si>
   <si>
     <t>064001000000000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>债券编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,16 +603,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>

--- a/public/model/bondsNonpBatchTemplate.xlsx
+++ b/public/model/bondsNonpBatchTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ccdc\cbpc-frontend\public\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230E2E2-D1E2-4610-B2F3-B509DEE8166C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5ED79B-43EF-4BF2-9D6E-A053D395C673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
